--- a/biology/Biochimie/Dihydroptéroate_synthase/Dihydroptéroate_synthase.xlsx
+++ b/biology/Biochimie/Dihydroptéroate_synthase/Dihydroptéroate_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La dihydroptéroate synthase est une enzyme classée par la nomenclature EC en tant que 2.5.1.15[1], présente dans la biosynthèse de la tétrahydrométhanoptérine chez les archées[2],[3] et de l’acide folique chez les bactéries, les champignons et les plantes, mais pas chez les animaux[2],[3].
+La dihydroptéroate synthase est une enzyme classée par la nomenclature EC en tant que 2.5.1.15, présente dans la biosynthèse de la tétrahydrométhanoptérine chez les archées, et de l’acide folique chez les bactéries, les champignons et les plantes, mais pas chez les animaux,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette enzyme porte 111 synonymes[3] dont
-« DHPS », « dihydro|pteroate diphosphorylase » ou « dihydropteroate pyrophosphorylase »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette enzyme porte 111 synonymes dont
+« DHPS », « dihydro|pteroate diphosphorylase » ou « dihydropteroate pyrophosphorylase ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cofacteurs folate dans leurs formes réduites sont nécessaires aux différents organismes pour la synthèse de nombreux métabolites essentiels. Les cellules des vertébrés possèdent  des systèmes de transports actifs qui leur permettent d'assimiler le folate provenant de l'alimentation. L'absence d'un tel système chez la plupart des microorganismes implique qu'ils doivent synthétiser de novo le folate. Les protéines contenant un domaine capable de synthèse de folate incluent la dihydroptéroate synthase (EC 2.5.1.15) ainsi qu'un groupe d'enzymes méthyltransférases y compris la protéine méthyltétrahydrofolate:corrinoid fer-sulfure méthyltransférase (MeTr)[4] qui catalyse une étape clé de la voie Wood-Ljungdahl impliquée dans la fixation du dioxyde de carbone.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cofacteurs folate dans leurs formes réduites sont nécessaires aux différents organismes pour la synthèse de nombreux métabolites essentiels. Les cellules des vertébrés possèdent  des systèmes de transports actifs qui leur permettent d'assimiler le folate provenant de l'alimentation. L'absence d'un tel système chez la plupart des microorganismes implique qu'ils doivent synthétiser de novo le folate. Les protéines contenant un domaine capable de synthèse de folate incluent la dihydroptéroate synthase (EC 2.5.1.15) ainsi qu'un groupe d'enzymes méthyltransférases y compris la protéine méthyltétrahydrofolate:corrinoid fer-sulfure méthyltransférase (MeTr) qui catalyse une étape clé de la voie Wood-Ljungdahl impliquée dans la fixation du dioxyde de carbone.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,16 +591,18 @@
           <t>Gènes et protéines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'activité enzymatique dihydroptéroate synthase est portée par des protéines multifonctionnelles très différentes les unes des autres en fonction des microorganismes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'activité enzymatique dihydroptéroate synthase est portée par des protéines multifonctionnelles très différentes les unes des autres en fonction des microorganismes.
 Gène sul1 chez Escherichia coli, Corynebacterium et Pseudomonas
 Gène sul2 chez Escherichia coli
 Gène folP chez les Staphylocoques, les Streptocoques et Neisseria meningitidis
 Gène folP1 chez Mycobacterium tuberculosis et autres mycobactéries
 Gène folP-A et folP-B chez Haemophilus influenzae
-Gène fol1 chez Pneumocystis jirovecii (anciennement P. carinii), Dictyostelium discoideum et Saccharomyces cerevisiae[5]
-Gène PjFAs ou fas chez Pneumocystis jirovecii codant la protéine tri-fonctionnelle FAS[6]
+Gène fol1 chez Pneumocystis jirovecii (anciennement P. carinii), Dictyostelium discoideum et Saccharomyces cerevisiae
+Gène PjFAs ou fas chez Pneumocystis jirovecii codant la protéine tri-fonctionnelle FAS
 Gène folKP chez Chlamydia pneumoniae</t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se structure en un dimère dans une solution, étudié depuis le staphylocoque doré[7], voire un tétramère (pfPPPK-DHPS[note 1]), étudié depuis le Plasmodium falciparum[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se structure en un dimère dans une solution, étudié depuis le staphylocoque doré, voire un tétramère (pfPPPK-DHPS[note 1]), étudié depuis le Plasmodium falciparum.
 </t>
         </is>
       </c>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enzyme Dihydroptéroate synthase (EC 2.5.1.15) (DHPS) catalyse la condensation du 6-hydroxymethyl-7,8-dihydroptéridine pyrophosphate en acide para-aminobenzoïque pour former le 7,8-dihydroptéroate. Il s'agit là de la seconde étape sur les 3 de la voie menant à la formation de 7,8-dihydrofolate à partir de 6-hydroxymethyl-7,8-dihydroptérine.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dihydropt%C3%A9roate_synthase</t>
+          <t>Dihydroptéroate_synthase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,9 +697,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La DHPS est la cible des sulfonamides, qui sont des substrats analogues qui entrent en compétition avec l'acide  para-aminobenzoïque (pABA)[9]. Les DHPS bactériennes (codées par le gène sul ou folP)[10] sont des protéines de 275 à 315 acides aminés codées soit dans un chromosome soit dans un plasmide contenant des gènes de  résistance aux antibiotiques. Chez le fungi Pneumocystis jirovecii, l'activité DHPS est portée par le domaine C-terminal d'une enzyme multifonctionnelle et capable de synthèse du folate (gene fas)[6],[11]. Des mutations ont été associées à l'émergence de souches résistantes chez les patients atteints de pneumonies dues à cette espèce et traités par des sulfonamides[12]. La prévalence géographique et la diffusion des mutations chez P. jirovecii serait reliée à l'utilisation des sulfonamides ainsi qu'aux transmissions entre malades[12]. Le lien entre les mutations, la résistance aux sulfonamides et une évolution clinique plus grave chez les malades, même si elle a été confirmée dans certaines études reste à être démontrée sur des études plus larges[13].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La DHPS est la cible des sulfonamides, qui sont des substrats analogues qui entrent en compétition avec l'acide  para-aminobenzoïque (pABA). Les DHPS bactériennes (codées par le gène sul ou folP) sont des protéines de 275 à 315 acides aminés codées soit dans un chromosome soit dans un plasmide contenant des gènes de  résistance aux antibiotiques. Chez le fungi Pneumocystis jirovecii, l'activité DHPS est portée par le domaine C-terminal d'une enzyme multifonctionnelle et capable de synthèse du folate (gene fas),. Des mutations ont été associées à l'émergence de souches résistantes chez les patients atteints de pneumonies dues à cette espèce et traités par des sulfonamides. La prévalence géographique et la diffusion des mutations chez P. jirovecii serait reliée à l'utilisation des sulfonamides ainsi qu'aux transmissions entre malades. Le lien entre les mutations, la résistance aux sulfonamides et une évolution clinique plus grave chez les malades, même si elle a été confirmée dans certaines études reste à être démontrée sur des études plus larges.
 </t>
         </is>
       </c>
